--- a/products.xlsx
+++ b/products.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Фаяз\Desktop\bot-scarper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Фаяз\Desktop\django-store\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,10 +672,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="2">
-        <v>44504</v>
+        <v>44506</v>
       </c>
       <c r="G3">
-        <v>30990</v>
+        <v>37490</v>
       </c>
       <c r="H3">
         <v>2</v>
